--- a/uniform_result_set.xlsx
+++ b/uniform_result_set.xlsx
@@ -647,34 +647,34 @@
         <v>0.109</v>
       </c>
       <c r="U2" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
       <c r="W2" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="Y2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AB2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC2" t="n">
         <v>0.02</v>
       </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/uniform_result_set.xlsx
+++ b/uniform_result_set.xlsx
@@ -656,10 +656,10 @@
         <v>0.2</v>
       </c>
       <c r="X2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Z2" t="n">
         <v>0.08</v>
